--- a/Hoja de trabajo Contradiccion de tesis.xlsx
+++ b/Hoja de trabajo Contradiccion de tesis.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -691,22 +691,24 @@
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Ok</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>42179</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>42180</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -714,22 +716,24 @@
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Ok</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>42179</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>42180</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1588,11 +1592,11 @@
       </c>
       <c r="D58" s="1">
         <f>SUM(D2:D57)</f>
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="E58" s="6">
         <f>(100% -((D58*100%)/C58))</f>
-        <v>0.60377358490566035</v>
+        <v>0.90566037735849059</v>
       </c>
     </row>
   </sheetData>

--- a/Hoja de trabajo Contradiccion de tesis.xlsx
+++ b/Hoja de trabajo Contradiccion de tesis.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavega\Documents\Visual Studio 2010\Projects\ContradiccionDeTesisCaptura\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="24240" windowHeight="12705"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Descripción</t>
   </si>
@@ -70,6 +75,18 @@
   </si>
   <si>
     <t>Implementar la funcionalidad para la captura de los oficios que se reciben relativos a una contradicción</t>
+  </si>
+  <si>
+    <t>En el campo de captura de observaciones se desborda el texto</t>
+  </si>
+  <si>
+    <t>Estandarización de la ubicación de los botones de Guardar y Cancelar</t>
+  </si>
+  <si>
+    <t>Columna númerica en el listado principal</t>
+  </si>
+  <si>
+    <t>Optimización de la carga del listado principal</t>
   </si>
 </sst>
 </file>
@@ -136,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,7 +171,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,13 +547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
@@ -536,8 +562,8 @@
     <col min="9" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -562,8 +588,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -587,8 +613,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5" t="str">
@@ -612,8 +638,8 @@
         <v>42179</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="str">
@@ -637,8 +663,8 @@
         <v>42179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="5" t="str">
@@ -662,8 +688,8 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5" t="str">
@@ -685,8 +711,8 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="str">
@@ -710,8 +736,8 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="5" t="str">
@@ -735,8 +761,8 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5" t="str">
@@ -760,79 +786,105 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="5" t="str">
         <f t="shared" ref="B10" si="3">IF(E10&lt;100%,"Pendiente","Ok")</f>
-        <v>Pendiente</v>
+        <v>Ok</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42520</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:D12" si="4">IF((E11= 100%),0,C11-(C11*E11))</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>42520</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Ok</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42520</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Ok</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <f>IF((E13= 100%),0,C13-(C13*E13))</f>
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42520</v>
+      </c>
+      <c r="G13" s="2">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -850,7 +902,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -868,7 +920,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -886,7 +938,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -904,7 +956,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -922,7 +974,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -940,7 +992,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -958,7 +1010,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -976,7 +1028,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -994,7 +1046,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1012,7 +1064,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1030,7 +1082,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1048,7 +1100,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1065,7 +1117,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1082,7 +1134,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1099,7 +1151,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="str">
         <f t="shared" ref="B29:B41" si="6">IF(E29&lt;100%,"Pendiente","Ok")</f>
         <v>Pendiente</v>
@@ -1116,7 +1168,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1151,7 +1203,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1169,7 +1221,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1186,7 +1238,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1203,7 +1255,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1220,7 +1272,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1237,7 +1289,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1254,7 +1306,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1271,7 +1323,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1288,7 +1340,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1305,7 +1357,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="str">
         <f t="shared" si="6"/>
         <v>Pendiente</v>
@@ -1322,7 +1374,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1339,7 +1391,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1356,7 +1408,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1373,7 +1425,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1390,7 +1442,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1407,7 +1459,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1424,7 +1476,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1441,7 +1493,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1458,7 +1510,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1475,7 +1527,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1509,7 +1561,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1526,7 +1578,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1543,7 +1595,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1560,7 +1612,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Pendiente</v>
@@ -1577,26 +1629,26 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1">
         <f>SUM(C2:C22)</f>
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="D58" s="1">
         <f>SUM(D2:D57)</f>
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E58" s="6">
         <f>(100% -((D58*100%)/C58))</f>
-        <v>0.90566037735849059</v>
+        <v>0.83116883116883122</v>
       </c>
     </row>
   </sheetData>

--- a/Hoja de trabajo Contradiccion de tesis.xlsx
+++ b/Hoja de trabajo Contradiccion de tesis.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavega\Documents\Visual Studio 2010\Projects\ContradiccionDeTesisCaptura\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="24240" windowHeight="12705"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -301,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -817,22 +814,24 @@
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Ok</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:D12" si="4">IF((E11= 100%),0,C11-(C11*E11))</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>42520</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>42543</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1644,11 +1643,11 @@
       </c>
       <c r="D58" s="1">
         <f>SUM(D2:D57)</f>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E58" s="6">
         <f>(100% -((D58*100%)/C58))</f>
-        <v>0.83116883116883122</v>
+        <v>0.93506493506493504</v>
       </c>
     </row>
   </sheetData>
